--- a/backend/app/data/Gatteaux.xlsx
+++ b/backend/app/data/Gatteaux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2584049-797A-504D-8887-CB8878E303E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BACCA5-3D89-1344-94FF-11AC8996C22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20700" windowHeight="16260" xr2:uid="{C7F35C09-7B75-CE4C-8BCB-5A2637948E7B}"/>
   </bookViews>
@@ -96,94 +96,94 @@
     <t>S</t>
   </si>
   <si>
+    <t>Gatteaux</t>
+  </si>
+  <si>
+    <t>Gatteaux.JC.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.JC.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.JD.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.JD.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.JH.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.JH.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.JS.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.JS.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.KC.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.KC.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.KD.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.KH.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.KD.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.KH.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.KS.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.KS.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.QC.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.QC.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.QD.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.QD.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.QH.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.QH.2</t>
+  </si>
+  <si>
+    <t>Gatteaux.QS.1</t>
+  </si>
+  <si>
+    <t>Gatteaux.QS.2</t>
+  </si>
+  <si>
+    <t>Jeu de cartes au portrait officiel à une tête de 1816, avec enveloppe</t>
+  </si>
+  <si>
+    <t>Avignon</t>
+  </si>
+  <si>
+    <t>http://catalogue.bnf.fr/ark:/12148/cb40918657s</t>
+  </si>
+  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>Gatteaux</t>
-  </si>
-  <si>
-    <t>Gatteaux.JC.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.JC.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.JD.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.JD.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.JH.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.JH.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.JS.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.JS.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.KC.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.KC.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.KD.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.KH.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.KD.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.KH.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.KS.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.KS.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.QC.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.QC.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.QD.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.QD.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.QH.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.QH.2</t>
-  </si>
-  <si>
-    <t>Gatteaux.QS.1</t>
-  </si>
-  <si>
-    <t>Gatteaux.QS.2</t>
-  </si>
-  <si>
-    <t>Jeu de cartes au portrait officiel à une tête de 1816, avec enveloppe</t>
-  </si>
-  <si>
-    <t>Avignon</t>
-  </si>
-  <si>
-    <t>http://catalogue.bnf.fr/ark:/12148/cb40918657s</t>
   </si>
 </sst>
 </file>
@@ -548,13 +548,14 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
@@ -577,10 +578,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -600,7 +601,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -612,30 +613,30 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>1816</v>
+      </c>
+      <c r="G2">
+        <v>1816</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>47</v>
-      </c>
-      <c r="F2">
-        <v>1816</v>
-      </c>
-      <c r="G2">
-        <v>1816</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -647,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1816</v>
@@ -656,13 +657,13 @@
         <v>1816</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -670,7 +671,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -682,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>1816</v>
@@ -691,13 +692,13 @@
         <v>1816</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -705,7 +706,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -717,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>1816</v>
@@ -726,13 +727,13 @@
         <v>1816</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -740,7 +741,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -752,7 +753,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>1816</v>
@@ -761,13 +762,13 @@
         <v>1816</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -775,7 +776,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -787,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>1816</v>
@@ -796,13 +797,13 @@
         <v>1816</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -810,7 +811,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -822,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>1816</v>
@@ -831,13 +832,13 @@
         <v>1816</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -845,7 +846,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -857,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>1816</v>
@@ -866,13 +867,13 @@
         <v>1816</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -880,7 +881,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -892,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>1816</v>
@@ -901,13 +902,13 @@
         <v>1816</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -915,7 +916,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -927,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>1816</v>
@@ -936,13 +937,13 @@
         <v>1816</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
@@ -950,7 +951,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -962,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1816</v>
@@ -971,13 +972,13 @@
         <v>1816</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -985,7 +986,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -997,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>1816</v>
@@ -1006,13 +1007,13 @@
         <v>1816</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
@@ -1020,7 +1021,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1032,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>1816</v>
@@ -1041,13 +1042,13 @@
         <v>1816</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -1055,7 +1056,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1067,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>1816</v>
@@ -1076,13 +1077,13 @@
         <v>1816</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
@@ -1090,7 +1091,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1102,7 +1103,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>1816</v>
@@ -1111,13 +1112,13 @@
         <v>1816</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1137,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1816</v>
@@ -1146,13 +1147,13 @@
         <v>1816</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
@@ -1160,7 +1161,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1172,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>1816</v>
@@ -1181,13 +1182,13 @@
         <v>1816</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1195,7 +1196,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1207,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19">
         <v>1816</v>
@@ -1216,13 +1217,13 @@
         <v>1816</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1230,7 +1231,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1242,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>1816</v>
@@ -1251,13 +1252,13 @@
         <v>1816</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
@@ -1265,7 +1266,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1277,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>1816</v>
@@ -1286,13 +1287,13 @@
         <v>1816</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
@@ -1300,7 +1301,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1312,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>1816</v>
@@ -1321,13 +1322,13 @@
         <v>1816</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
@@ -1335,7 +1336,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1347,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>1816</v>
@@ -1356,13 +1357,13 @@
         <v>1816</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
         <v>15</v>
@@ -1370,7 +1371,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1382,7 +1383,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24">
         <v>1816</v>
@@ -1391,13 +1392,13 @@
         <v>1816</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
         <v>15</v>
@@ -1405,7 +1406,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1417,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25">
         <v>1816</v>
@@ -1426,13 +1427,13 @@
         <v>1816</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
